--- a/team_specific_matrix/Western Caro._A.xlsx
+++ b/team_specific_matrix/Western Caro._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2085106382978723</v>
+        <v>0.2084805653710247</v>
       </c>
       <c r="C2">
-        <v>0.5148936170212766</v>
+        <v>0.5265017667844523</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01276595744680851</v>
+        <v>0.01413427561837456</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1574468085106383</v>
+        <v>0.1519434628975265</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1063829787234043</v>
+        <v>0.0989399293286219</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008130081300813009</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C3">
-        <v>0.01626016260162602</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06504065040650407</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7479674796747967</v>
+        <v>0.7483870967741936</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1626016260162602</v>
+        <v>0.1483870967741935</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7647058823529411</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2058823529411765</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05978260869565218</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02717391304347826</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="E6">
-        <v>0.005434782608695652</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="F6">
-        <v>0.03260869565217391</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3858695652173913</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0108695652173913</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1576086956521739</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="R6">
-        <v>0.05978260869565218</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="S6">
-        <v>0.2608695652173913</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08666666666666667</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03333333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09333333333333334</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.24</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.08666666666666667</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S7">
-        <v>0.4066666666666667</v>
+        <v>0.4055555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.00419287211740042</v>
       </c>
       <c r="F8">
-        <v>0.055</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1525</v>
+        <v>0.1425576519916142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0175</v>
+        <v>0.01467505241090147</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1625</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="R8">
-        <v>0.0925</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="S8">
-        <v>0.4025</v>
+        <v>0.3983228511530398</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03076923076923077</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03846153846153846</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1461538461538462</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04615384615384616</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1846153846153846</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="R9">
-        <v>0.06923076923076923</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="S9">
-        <v>0.4076923076923077</v>
+        <v>0.4161490683229814</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09287646528403967</v>
+        <v>0.09553158705701079</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01442741208295762</v>
+        <v>0.01540832049306626</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06041478809738503</v>
+        <v>0.0600924499229584</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1073038773669973</v>
+        <v>0.1063174114021572</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01532912533814247</v>
+        <v>0.01771956856702619</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2290351668169522</v>
+        <v>0.2326656394453005</v>
       </c>
       <c r="R10">
-        <v>0.1064021641118124</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="S10">
-        <v>0.3742110009017133</v>
+        <v>0.3705701078582435</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1387755102040816</v>
+        <v>0.1404682274247492</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1142857142857143</v>
+        <v>0.1103678929765886</v>
       </c>
       <c r="K11">
-        <v>0.1877551020408163</v>
+        <v>0.1906354515050167</v>
       </c>
       <c r="L11">
-        <v>0.5469387755102041</v>
+        <v>0.5418060200668896</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01224489795918367</v>
+        <v>0.01672240802675585</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7289156626506024</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1764705882352941</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="K12">
-        <v>0.01470588235294118</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="L12">
-        <v>0.007352941176470588</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05147058823529412</v>
+        <v>0.06024096385542169</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1875</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01704545454545454</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1534090909090909</v>
+        <v>0.1516587677725119</v>
       </c>
       <c r="I15">
-        <v>0.05681818181818182</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="J15">
-        <v>0.3522727272727273</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="K15">
-        <v>0.05113636363636364</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02840909090909091</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06818181818181818</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2727272727272727</v>
+        <v>0.2890995260663507</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04635761589403974</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1920529801324503</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I16">
-        <v>0.05298013245033113</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="J16">
-        <v>0.4105960264900662</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="K16">
-        <v>0.1059602649006623</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006622516556291391</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06622516556291391</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.119205298013245</v>
+        <v>0.1164021164021164</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03258145363408521</v>
+        <v>0.0389344262295082</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2105263157894737</v>
+        <v>0.2069672131147541</v>
       </c>
       <c r="I17">
-        <v>0.07769423558897243</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="J17">
-        <v>0.3984962406015037</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="K17">
-        <v>0.1077694235588972</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01503759398496241</v>
+        <v>0.01434426229508197</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05263157894736842</v>
+        <v>0.05532786885245902</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1052631578947368</v>
+        <v>0.1270491803278689</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02659574468085106</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2074468085106383</v>
+        <v>0.2008928571428572</v>
       </c>
       <c r="I18">
-        <v>0.0797872340425532</v>
+        <v>0.09375</v>
       </c>
       <c r="J18">
-        <v>0.4893617021276596</v>
+        <v>0.46875</v>
       </c>
       <c r="K18">
-        <v>0.06382978723404255</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01063829787234043</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06382978723404255</v>
+        <v>0.06696428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02529182879377432</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2169260700389105</v>
+        <v>0.2117367168913561</v>
       </c>
       <c r="I19">
-        <v>0.06420233463035019</v>
+        <v>0.06344171292624901</v>
       </c>
       <c r="J19">
-        <v>0.3803501945525292</v>
+        <v>0.359238699444885</v>
       </c>
       <c r="K19">
-        <v>0.1089494163424125</v>
+        <v>0.1046788263283109</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01848249027237354</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06614785992217899</v>
+        <v>0.06344171292624901</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1196498054474708</v>
+        <v>0.1459159397303727</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Western Caro._A.xlsx
+++ b/team_specific_matrix/Western Caro._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2084805653710247</v>
+        <v>0.2090032154340836</v>
       </c>
       <c r="C2">
-        <v>0.5265017667844523</v>
+        <v>0.5176848874598071</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01413427561837456</v>
+        <v>0.01929260450160772</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1519434628975265</v>
+        <v>0.157556270096463</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0989399293286219</v>
+        <v>0.09646302250803858</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006451612903225806</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C3">
-        <v>0.03870967741935484</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05806451612903226</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7483870967741936</v>
+        <v>0.7337278106508875</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1483870967741935</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02380952380952381</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7857142857142857</v>
+        <v>0.78</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1904761904761905</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06060606060606061</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02164502164502164</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="E6">
-        <v>0.004329004329004329</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="F6">
-        <v>0.0303030303030303</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4025974025974026</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01298701298701299</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1385281385281385</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="R6">
-        <v>0.05627705627705628</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="S6">
-        <v>0.2727272727272727</v>
+        <v>0.2738095238095238</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08888888888888889</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03333333333333333</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02777777777777778</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1055555555555556</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01666666666666667</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2333333333333333</v>
+        <v>0.2412060301507538</v>
       </c>
       <c r="R7">
-        <v>0.08888888888888889</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="S7">
-        <v>0.4055555555555556</v>
+        <v>0.3869346733668342</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1006289308176101</v>
+        <v>0.09784735812133072</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01886792452830189</v>
+        <v>0.01956947162426614</v>
       </c>
       <c r="E8">
-        <v>0.00419287211740042</v>
+        <v>0.003913894324853229</v>
       </c>
       <c r="F8">
-        <v>0.05660377358490566</v>
+        <v>0.05870841487279843</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1425576519916142</v>
+        <v>0.1448140900195695</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01467505241090147</v>
+        <v>0.01565557729941291</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1761006289308176</v>
+        <v>0.1800391389432485</v>
       </c>
       <c r="R8">
-        <v>0.0880503144654088</v>
+        <v>0.09001956947162426</v>
       </c>
       <c r="S8">
-        <v>0.3983228511530398</v>
+        <v>0.3894324853228963</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08074534161490683</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02484472049689441</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03726708074534162</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1180124223602484</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03726708074534162</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1801242236024845</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="R9">
-        <v>0.1055900621118012</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="S9">
-        <v>0.4161490683229814</v>
+        <v>0.4130434782608696</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09553158705701079</v>
+        <v>0.09291121816930489</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01540832049306626</v>
+        <v>0.01789401238816242</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0600924499229584</v>
+        <v>0.05918788713007571</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1063174114021572</v>
+        <v>0.1039229181004818</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01771956856702619</v>
+        <v>0.01995870612525809</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2326656394453005</v>
+        <v>0.2381280110116999</v>
       </c>
       <c r="R10">
-        <v>0.1016949152542373</v>
+        <v>0.09910529938059189</v>
       </c>
       <c r="S10">
-        <v>0.3705701078582435</v>
+        <v>0.3688919476944253</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1404682274247492</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1103678929765886</v>
+        <v>0.1070336391437309</v>
       </c>
       <c r="K11">
-        <v>0.1906354515050167</v>
+        <v>0.1804281345565749</v>
       </c>
       <c r="L11">
-        <v>0.5418060200668896</v>
+        <v>0.5688073394495413</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01672240802675585</v>
+        <v>0.01529051987767584</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7289156626506024</v>
+        <v>0.7225130890052356</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1927710843373494</v>
+        <v>0.1989528795811518</v>
       </c>
       <c r="K12">
-        <v>0.01204819277108434</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="L12">
-        <v>0.006024096385542169</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06024096385542169</v>
+        <v>0.05759162303664921</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6904761904761905</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02369668246445497</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1516587677725119</v>
+        <v>0.1352459016393443</v>
       </c>
       <c r="I15">
-        <v>0.06161137440758294</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="J15">
-        <v>0.3412322274881517</v>
+        <v>0.3483606557377049</v>
       </c>
       <c r="K15">
-        <v>0.04739336492890995</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02369668246445497</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06161137440758294</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2890995260663507</v>
+        <v>0.290983606557377</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04232804232804233</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1904761904761905</v>
+        <v>0.1866028708133971</v>
       </c>
       <c r="I16">
-        <v>0.0582010582010582</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="J16">
-        <v>0.3915343915343915</v>
+        <v>0.3779904306220095</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01587301587301587</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="O16">
-        <v>0.07407407407407407</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1164021164021164</v>
+        <v>0.1244019138755981</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0389344262295082</v>
+        <v>0.03642987249544627</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2069672131147541</v>
+        <v>0.1930783242258652</v>
       </c>
       <c r="I17">
-        <v>0.07377049180327869</v>
+        <v>0.07832422586520947</v>
       </c>
       <c r="J17">
-        <v>0.3770491803278688</v>
+        <v>0.395264116575592</v>
       </c>
       <c r="K17">
-        <v>0.1065573770491803</v>
+        <v>0.1056466302367942</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01434426229508197</v>
+        <v>0.01457194899817851</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05532786885245902</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1270491803278689</v>
+        <v>0.122040072859745</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02232142857142857</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2008928571428572</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="I18">
-        <v>0.09375</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="J18">
-        <v>0.46875</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="K18">
-        <v>0.08035714285714286</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008928571428571428</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05803571428571429</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06696428571428571</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03092783505154639</v>
+        <v>0.03111432706222865</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2117367168913561</v>
+        <v>0.2076700434153401</v>
       </c>
       <c r="I19">
-        <v>0.06344171292624901</v>
+        <v>0.06367583212735166</v>
       </c>
       <c r="J19">
-        <v>0.359238699444885</v>
+        <v>0.3661360347322721</v>
       </c>
       <c r="K19">
-        <v>0.1046788263283109</v>
+        <v>0.105643994211288</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02061855670103093</v>
+        <v>0.01881331403762663</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06344171292624901</v>
+        <v>0.06512301013024602</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1459159397303727</v>
+        <v>0.1418234442836469</v>
       </c>
     </row>
   </sheetData>
